--- a/data/trans_orig/P1203-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1203-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{324D8C35-F34F-46F5-95E4-1906FB092200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC58C370-DEAC-4E64-B681-D4FF7A6CF4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{04824C0F-95A5-4CA0-985D-3CC3C3CEBA76}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{713DA955-CB0F-4BCC-9F19-0F47914B1BFA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="747">
   <si>
     <t>Población según frecuencia de sentirse desanimado y triste en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,2145 +77,2175 @@
     <t>40,43%</t>
   </si>
   <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
   </si>
   <si>
     <t>33,61%</t>
   </si>
   <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
   </si>
   <si>
     <t>36,61%</t>
   </si>
   <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>Sólo alguna vez</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>Algunas Veces</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>Muchas Veces</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>Casi Siempre</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de sentirse desanimado y triste en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
     <t>34,65%</t>
   </si>
   <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>Sólo alguna vez</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>Algunas Veces</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de sentirse desanimado y triste en 2016 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de sentirse desanimado y triste en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>Muchas Veces</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>Casi Siempre</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de sentirse desanimado y triste en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de sentirse desanimado y triste en 2015 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de sentirse desanimado y triste en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
     <t>6,6%</t>
   </si>
   <si>
@@ -2229,9 +2259,6 @@
   </si>
   <si>
     <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
   </si>
   <si>
     <t>3,93%</t>
@@ -2664,7 +2691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55137B1-3EAC-4EB2-B79A-C3734634E61D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11217A6C-1935-470E-AB66-A6170E11542B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2926,13 +2953,13 @@
         <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>71</v>
@@ -2941,13 +2968,13 @@
         <v>69743</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -2956,13 +2983,13 @@
         <v>103410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>170</v>
@@ -2971,19 +2998,19 @@
         <v>173153</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>16</v>
@@ -2992,13 +3019,13 @@
         <v>15666</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -3007,13 +3034,13 @@
         <v>25828</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -3022,19 +3049,19 @@
         <v>41495</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
         <v>8</v>
@@ -3043,13 +3070,13 @@
         <v>8266</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -3058,13 +3085,13 @@
         <v>22503</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -3073,10 +3100,10 @@
         <v>30769</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>68</v>
@@ -3204,7 +3231,7 @@
         <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>379</v>
@@ -3213,13 +3240,13 @@
         <v>388243</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>725</v>
@@ -3228,13 +3255,13 @@
         <v>752554</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3276,13 @@
         <v>189459</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>274</v>
@@ -3264,13 +3291,13 @@
         <v>284524</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>462</v>
@@ -3279,19 +3306,19 @@
         <v>473983</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>36</v>
@@ -3300,13 +3327,13 @@
         <v>39218</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -3315,13 +3342,13 @@
         <v>61003</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>97</v>
@@ -3330,19 +3357,19 @@
         <v>100221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
         <v>11</v>
@@ -3351,13 +3378,13 @@
         <v>11799</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H15" s="7">
         <v>22</v>
@@ -3366,13 +3393,13 @@
         <v>22344</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M15" s="7">
         <v>33</v>
@@ -3381,19 +3408,19 @@
         <v>34143</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
         <v>7</v>
@@ -3402,13 +3429,13 @@
         <v>6577</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -3417,13 +3444,13 @@
         <v>19263</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -3432,13 +3459,13 @@
         <v>25841</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,7 +3477,7 @@
         <v>1649</v>
       </c>
       <c r="D17" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>69</v>
@@ -3494,7 +3521,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3506,13 +3533,13 @@
         <v>338153</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>237</v>
@@ -3521,13 +3548,13 @@
         <v>248490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>562</v>
@@ -3536,13 +3563,13 @@
         <v>586643</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,7 +3584,7 @@
         <v>134104</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>133</v>
@@ -3590,10 +3617,10 @@
         <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3635,13 @@
         <v>64375</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -3623,13 +3650,13 @@
         <v>88592</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>145</v>
@@ -3638,7 +3665,7 @@
         <v>152967</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>147</v>
@@ -3650,7 +3677,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7">
         <v>7</v>
@@ -3701,7 +3728,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
         <v>4</v>
@@ -3743,16 +3770,16 @@
         <v>164</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
         <v>2</v>
@@ -3761,13 +3788,13 @@
         <v>1837</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3776,13 +3803,13 @@
         <v>6192</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -3794,10 +3821,10 @@
         <v>171</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,16 +3889,16 @@
         <v>1806</v>
       </c>
       <c r="D25" s="7">
-        <v>1837315</v>
+        <v>1837314</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>1477</v>
@@ -3880,13 +3907,13 @@
         <v>1502825</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>3283</v>
@@ -3895,13 +3922,13 @@
         <v>3340139</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3943,13 @@
         <v>776323</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>832</v>
@@ -3931,13 +3958,13 @@
         <v>855986</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>1589</v>
@@ -3946,13 +3973,13 @@
         <v>1632309</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3994,13 @@
         <v>496861</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H27" s="7">
         <v>711</v>
@@ -3982,13 +4009,13 @@
         <v>733861</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M27" s="7">
         <v>1200</v>
@@ -3997,19 +4024,19 @@
         <v>1230722</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
         <v>114</v>
@@ -4018,13 +4045,13 @@
         <v>116457</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H28" s="7">
         <v>175</v>
@@ -4033,13 +4060,13 @@
         <v>179591</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7">
         <v>289</v>
@@ -4048,19 +4075,19 @@
         <v>296048</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
         <v>31</v>
@@ -4069,13 +4096,13 @@
         <v>32909</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>58</v>
@@ -4111,7 +4138,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
         <v>17</v>
@@ -4126,7 +4153,7 @@
         <v>216</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>44</v>
@@ -4135,13 +4162,13 @@
         <v>47959</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>61</v>
@@ -4150,13 +4177,13 @@
         <v>64639</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,7 +4195,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>69</v>
@@ -4231,7 +4258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1783E199-3CC5-43AF-A24A-7F0BAAD32FDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328B735-864A-4CB7-BCAB-5C673E09A0B4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4376,7 +4403,7 @@
         <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>568</v>
@@ -4385,13 +4412,13 @@
         <v>611664</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,13 +4433,13 @@
         <v>304410</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>351</v>
@@ -4421,10 +4448,10 @@
         <v>373728</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>237</v>
@@ -4499,7 +4526,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>64</v>
@@ -4550,7 +4577,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>43</v>
@@ -4580,7 +4607,7 @@
         <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -4589,19 +4616,19 @@
         <v>118159</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
         <v>18</v>
@@ -4610,13 +4637,13 @@
         <v>19990</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>40</v>
@@ -4625,13 +4652,13 @@
         <v>43749</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -4640,13 +4667,13 @@
         <v>63738</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,16 +4738,16 @@
         <v>891</v>
       </c>
       <c r="D11" s="7">
-        <v>940035</v>
+        <v>940036</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>620</v>
@@ -4729,13 +4756,13 @@
         <v>664228</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>1511</v>
@@ -4744,13 +4771,13 @@
         <v>1604263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4792,13 @@
         <v>549631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>459</v>
@@ -4780,13 +4807,13 @@
         <v>492499</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>286</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>980</v>
@@ -4795,13 +4822,13 @@
         <v>1042130</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4843,13 @@
         <v>348720</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>380</v>
@@ -4831,13 +4858,13 @@
         <v>407362</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>705</v>
@@ -4846,19 +4873,19 @@
         <v>756082</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>72</v>
@@ -4867,13 +4894,13 @@
         <v>74013</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
@@ -4882,13 +4909,13 @@
         <v>91732</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>155</v>
@@ -4897,19 +4924,19 @@
         <v>165745</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
         <v>33</v>
@@ -4918,10 +4945,10 @@
         <v>36757</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>310</v>
@@ -4936,10 +4963,10 @@
         <v>311</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M15" s="7">
         <v>95</v>
@@ -4948,19 +4975,19 @@
         <v>105083</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
         <v>12</v>
@@ -4969,13 +4996,13 @@
         <v>12261</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>159</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -4984,13 +5011,13 @@
         <v>29635</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>53</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -4999,13 +5026,13 @@
         <v>41896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>319</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,7 +5044,7 @@
         <v>1854</v>
       </c>
       <c r="D17" s="7">
-        <v>1961417</v>
+        <v>1961418</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>69</v>
@@ -5061,7 +5088,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5127,10 +5154,10 @@
         <v>329</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H19" s="7">
         <v>140</v>
@@ -5139,13 +5166,13 @@
         <v>151971</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M19" s="7">
         <v>272</v>
@@ -5154,13 +5181,13 @@
         <v>302042</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,10 +5202,10 @@
         <v>68770</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>339</v>
@@ -5205,19 +5232,19 @@
         <v>154191</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>192</v>
+        <v>343</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7">
         <v>9</v>
@@ -5226,10 +5253,10 @@
         <v>11098</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>160</v>
+        <v>314</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>345</v>
+        <v>219</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>346</v>
@@ -5241,13 +5268,13 @@
         <v>14800</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>98</v>
+        <v>347</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -5256,19 +5283,19 @@
         <v>25898</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>265</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
         <v>5</v>
@@ -5277,13 +5304,13 @@
         <v>5263</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>349</v>
+        <v>169</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>52</v>
+        <v>353</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -5292,13 +5319,13 @@
         <v>13419</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>355</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>352</v>
+        <v>203</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -5307,19 +5334,19 @@
         <v>18682</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -5328,13 +5355,13 @@
         <v>935</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5343,13 +5370,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -5358,13 +5385,13 @@
         <v>935</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5459,13 @@
         <v>1489617</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H25" s="7">
         <v>1073</v>
@@ -5447,13 +5474,13 @@
         <v>1162373</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M25" s="7">
         <v>2484</v>
@@ -5462,13 +5489,13 @@
         <v>2651990</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5510,13 @@
         <v>1004112</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H26" s="7">
         <v>950</v>
@@ -5498,28 +5525,28 @@
         <v>1018198</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="M26" s="7">
         <v>1887</v>
       </c>
       <c r="N26" s="7">
-        <v>2022310</v>
+        <v>2022311</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>289</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5561,13 @@
         <v>645728</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H27" s="7">
         <v>837</v>
@@ -5549,34 +5576,34 @@
         <v>897402</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="M27" s="7">
         <v>1429</v>
       </c>
       <c r="N27" s="7">
-        <v>1543129</v>
+        <v>1543130</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
         <v>145</v>
@@ -5585,13 +5612,13 @@
         <v>153289</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>392</v>
       </c>
       <c r="H28" s="7">
         <v>223</v>
@@ -5600,13 +5627,13 @@
         <v>243190</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M28" s="7">
         <v>368</v>
@@ -5615,19 +5642,19 @@
         <v>396479</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
         <v>81</v>
@@ -5636,13 +5663,13 @@
         <v>88276</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>399</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="H29" s="7">
         <v>138</v>
@@ -5651,13 +5678,13 @@
         <v>153647</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="M29" s="7">
         <v>219</v>
@@ -5666,19 +5693,19 @@
         <v>241923</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
         <v>31</v>
@@ -5687,13 +5714,13 @@
         <v>33185</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>399</v>
+        <v>118</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>54</v>
+        <v>407</v>
       </c>
       <c r="H30" s="7">
         <v>67</v>
@@ -5702,13 +5729,13 @@
         <v>73384</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="M30" s="7">
         <v>98</v>
@@ -5717,13 +5744,13 @@
         <v>106569</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>402</v>
+        <v>173</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>68</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,7 +5792,7 @@
         <v>6485</v>
       </c>
       <c r="N31" s="7">
-        <v>6962402</v>
+        <v>6962403</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>69</v>
@@ -5798,7 +5825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181B1222-E3DB-4BCA-A8D2-760C9A9452EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618BCB7F-ADCB-47A0-A436-BFFE48E3D3A2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5815,7 +5842,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5922,13 +5949,13 @@
         <v>226889</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>287</v>
+        <v>414</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>406</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>192</v>
@@ -5937,13 +5964,13 @@
         <v>213813</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>409</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>417</v>
@@ -5952,13 +5979,13 @@
         <v>440702</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +6000,13 @@
         <v>222788</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>292</v>
+        <v>421</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="H5" s="7">
         <v>243</v>
@@ -5988,13 +6015,13 @@
         <v>268350</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="M5" s="7">
         <v>469</v>
@@ -6003,13 +6030,13 @@
         <v>491137</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +6051,13 @@
         <v>203407</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H6" s="7">
         <v>269</v>
@@ -6039,13 +6066,13 @@
         <v>298862</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="M6" s="7">
         <v>475</v>
@@ -6054,19 +6081,19 @@
         <v>502269</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>428</v>
+        <v>229</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>61</v>
@@ -6075,13 +6102,13 @@
         <v>59015</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="H7" s="7">
         <v>94</v>
@@ -6090,13 +6117,13 @@
         <v>106557</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="M7" s="7">
         <v>155</v>
@@ -6105,19 +6132,19 @@
         <v>165572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>28</v>
@@ -6126,13 +6153,13 @@
         <v>26652</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>271</v>
+        <v>447</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -6141,13 +6168,13 @@
         <v>68538</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="M8" s="7">
         <v>88</v>
@@ -6156,19 +6183,19 @@
         <v>95190</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>445</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
         <v>15</v>
@@ -6177,13 +6204,13 @@
         <v>14609</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>447</v>
+        <v>218</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>213</v>
+        <v>454</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>448</v>
+        <v>100</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -6192,13 +6219,13 @@
         <v>36425</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M9" s="7">
         <v>47</v>
@@ -6207,13 +6234,13 @@
         <v>51034</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>458</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>452</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6308,13 @@
         <v>873373</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="H11" s="7">
         <v>682</v>
@@ -6296,13 +6323,13 @@
         <v>700413</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>459</v>
+        <v>12</v>
       </c>
       <c r="M11" s="7">
         <v>1505</v>
@@ -6311,13 +6338,13 @@
         <v>1573786</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6359,13 @@
         <v>701825</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H12" s="7">
         <v>637</v>
@@ -6347,13 +6374,13 @@
         <v>658431</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="M12" s="7">
         <v>1301</v>
@@ -6362,13 +6389,13 @@
         <v>1360256</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6410,13 @@
         <v>377151</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>474</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>424</v>
@@ -6398,13 +6425,13 @@
         <v>448590</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="M13" s="7">
         <v>775</v>
@@ -6413,19 +6440,19 @@
         <v>825741</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>61</v>
@@ -6434,13 +6461,13 @@
         <v>64132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>315</v>
+        <v>486</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>487</v>
       </c>
       <c r="H14" s="7">
         <v>90</v>
@@ -6449,13 +6476,13 @@
         <v>99907</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>151</v>
@@ -6464,19 +6491,19 @@
         <v>164040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
         <v>24</v>
@@ -6485,13 +6512,13 @@
         <v>26593</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>487</v>
+        <v>411</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>219</v>
+        <v>495</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -6500,13 +6527,13 @@
         <v>52630</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>489</v>
+        <v>166</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="M15" s="7">
         <v>73</v>
@@ -6515,19 +6542,19 @@
         <v>79223</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>494</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
         <v>25</v>
@@ -6536,13 +6563,13 @@
         <v>29025</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6551,13 +6578,13 @@
         <v>24453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -6566,13 +6593,13 @@
         <v>53479</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>158</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,7 +6655,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6640,13 +6667,13 @@
         <v>254908</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="H18" s="7">
         <v>208</v>
@@ -6655,13 +6682,13 @@
         <v>217168</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="M18" s="7">
         <v>445</v>
@@ -6670,13 +6697,13 @@
         <v>472075</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,13 +6718,13 @@
         <v>182009</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>238</v>
+        <v>515</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="H19" s="7">
         <v>186</v>
@@ -6706,13 +6733,13 @@
         <v>194475</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="M19" s="7">
         <v>354</v>
@@ -6721,13 +6748,13 @@
         <v>376484</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>324</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6769,13 @@
         <v>80779</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="H20" s="7">
         <v>108</v>
@@ -6757,13 +6784,13 @@
         <v>112555</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="M20" s="7">
         <v>178</v>
@@ -6772,19 +6799,19 @@
         <v>193334</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7">
         <v>16</v>
@@ -6793,13 +6820,13 @@
         <v>18230</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>355</v>
+        <v>532</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>533</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -6808,13 +6835,13 @@
         <v>11600</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>349</v>
+        <v>162</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>302</v>
+        <v>536</v>
       </c>
       <c r="M21" s="7">
         <v>27</v>
@@ -6823,19 +6850,19 @@
         <v>29830</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>68</v>
+        <v>503</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
         <v>5</v>
@@ -6844,13 +6871,13 @@
         <v>5821</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>218</v>
+        <v>539</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -6859,13 +6886,13 @@
         <v>7296</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6874,19 +6901,19 @@
         <v>13117</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>317</v>
+        <v>545</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>532</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
         <v>5</v>
@@ -6895,13 +6922,13 @@
         <v>5140</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>61</v>
+        <v>547</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -6910,13 +6937,13 @@
         <v>4976</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>527</v>
+        <v>167</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>400</v>
+        <v>549</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -6925,13 +6952,13 @@
         <v>10116</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>550</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>169</v>
+        <v>551</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>401</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,13 +7026,13 @@
         <v>1355170</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="H25" s="7">
         <v>1082</v>
@@ -7014,13 +7041,13 @@
         <v>1131394</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>420</v>
+        <v>557</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="M25" s="7">
         <v>2367</v>
@@ -7029,13 +7056,13 @@
         <v>2486564</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>324</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,13 +7077,13 @@
         <v>1106621</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>366</v>
+        <v>564</v>
       </c>
       <c r="H26" s="7">
         <v>1066</v>
@@ -7065,13 +7092,13 @@
         <v>1121257</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="M26" s="7">
         <v>2124</v>
@@ -7080,13 +7107,13 @@
         <v>2227878</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>547</v>
+        <v>329</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>426</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7128,13 @@
         <v>661337</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="H27" s="7">
         <v>801</v>
@@ -7116,13 +7143,13 @@
         <v>860007</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>552</v>
+        <v>86</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>286</v>
+        <v>574</v>
       </c>
       <c r="M27" s="7">
         <v>1428</v>
@@ -7131,19 +7158,19 @@
         <v>1521343</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>554</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
         <v>138</v>
@@ -7152,13 +7179,13 @@
         <v>141378</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>163</v>
+        <v>304</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>556</v>
+        <v>446</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="H28" s="7">
         <v>195</v>
@@ -7167,13 +7194,13 @@
         <v>218064</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="M28" s="7">
         <v>333</v>
@@ -7182,19 +7209,19 @@
         <v>359442</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
         <v>57</v>
@@ -7206,10 +7233,10 @@
         <v>210</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>564</v>
+        <v>67</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>565</v>
+        <v>211</v>
       </c>
       <c r="H29" s="7">
         <v>116</v>
@@ -7218,13 +7245,13 @@
         <v>128464</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>397</v>
+        <v>104</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>307</v>
+        <v>584</v>
       </c>
       <c r="M29" s="7">
         <v>173</v>
@@ -7233,19 +7260,19 @@
         <v>187530</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>567</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
         <v>45</v>
@@ -7254,13 +7281,13 @@
         <v>48774</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>568</v>
+        <v>114</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>569</v>
+        <v>162</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="H30" s="7">
         <v>59</v>
@@ -7269,13 +7296,13 @@
         <v>65854</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>156</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="M30" s="7">
         <v>104</v>
@@ -7284,13 +7311,13 @@
         <v>114628</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>573</v>
+        <v>149</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7365,7 +7392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832DD514-084A-4A55-A26C-91370A31940C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B29135D-BD67-4227-A0E6-AC3B22781D6F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7382,7 +7409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7489,13 +7516,13 @@
         <v>185258</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="H4" s="7">
         <v>293</v>
@@ -7504,13 +7531,13 @@
         <v>173517</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>241</v>
+        <v>591</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="M4" s="7">
         <v>533</v>
@@ -7519,13 +7546,13 @@
         <v>358775</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>38</v>
+        <v>595</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7567,13 @@
         <v>113451</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="H5" s="7">
         <v>329</v>
@@ -7555,13 +7582,13 @@
         <v>186012</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="M5" s="7">
         <v>472</v>
@@ -7570,13 +7597,13 @@
         <v>299463</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,13 +7618,13 @@
         <v>141955</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>417</v>
+        <v>608</v>
       </c>
       <c r="H6" s="7">
         <v>444</v>
@@ -7606,13 +7633,13 @@
         <v>259997</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>593</v>
+        <v>368</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="M6" s="7">
         <v>625</v>
@@ -7621,19 +7648,19 @@
         <v>401951</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>65</v>
@@ -7642,13 +7669,13 @@
         <v>48374</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="H7" s="7">
         <v>186</v>
@@ -7657,13 +7684,13 @@
         <v>111481</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>517</v>
+        <v>616</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="M7" s="7">
         <v>251</v>
@@ -7672,19 +7699,19 @@
         <v>159854</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>38</v>
@@ -7693,13 +7720,13 @@
         <v>31852</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>606</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="H8" s="7">
         <v>122</v>
@@ -7708,13 +7735,13 @@
         <v>74505</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="M8" s="7">
         <v>160</v>
@@ -7723,19 +7750,19 @@
         <v>106357</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
         <v>23</v>
@@ -7744,13 +7771,13 @@
         <v>20248</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>613</v>
+        <v>105</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>614</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -7759,13 +7786,13 @@
         <v>28320</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -7774,13 +7801,13 @@
         <v>48568</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7848,13 +7875,13 @@
         <v>978120</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="H11" s="7">
         <v>1115</v>
@@ -7863,13 +7890,13 @@
         <v>847815</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="M11" s="7">
         <v>1984</v>
@@ -7878,13 +7905,13 @@
         <v>1825935</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>505</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7899,13 +7926,13 @@
         <v>549168</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>227</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="H12" s="7">
         <v>747</v>
@@ -7914,13 +7941,13 @@
         <v>551737</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>633</v>
+        <v>137</v>
       </c>
       <c r="M12" s="7">
         <v>1249</v>
@@ -7929,13 +7956,13 @@
         <v>1100905</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7950,13 +7977,13 @@
         <v>427194</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="H13" s="7">
         <v>681</v>
@@ -7965,13 +7992,13 @@
         <v>582026</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="M13" s="7">
         <v>1089</v>
@@ -7983,16 +8010,16 @@
         <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>118</v>
@@ -8001,13 +8028,13 @@
         <v>112913</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="H14" s="7">
         <v>203</v>
@@ -8016,13 +8043,13 @@
         <v>145698</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="M14" s="7">
         <v>321</v>
@@ -8031,19 +8058,19 @@
         <v>258611</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>651</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
         <v>59</v>
@@ -8052,13 +8079,13 @@
         <v>56560</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>310</v>
+        <v>665</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="H15" s="7">
         <v>116</v>
@@ -8067,13 +8094,13 @@
         <v>82111</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="M15" s="7">
         <v>175</v>
@@ -8082,19 +8109,19 @@
         <v>138670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
         <v>34</v>
@@ -8103,13 +8130,13 @@
         <v>35037</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>658</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>671</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -8118,13 +8145,13 @@
         <v>38443</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -8133,13 +8160,13 @@
         <v>73480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>348</v>
+        <v>674</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>661</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8195,7 +8222,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -8207,13 +8234,13 @@
         <v>339839</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>508</v>
+        <v>676</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="H18" s="7">
         <v>447</v>
@@ -8222,13 +8249,13 @@
         <v>318353</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="M18" s="7">
         <v>778</v>
@@ -8237,13 +8264,13 @@
         <v>658192</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,13 +8285,13 @@
         <v>170696</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="H19" s="7">
         <v>262</v>
@@ -8273,13 +8300,13 @@
         <v>193008</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>674</v>
+        <v>381</v>
       </c>
       <c r="M19" s="7">
         <v>439</v>
@@ -8288,13 +8315,13 @@
         <v>363704</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,13 +8336,13 @@
         <v>105082</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="H20" s="7">
         <v>208</v>
@@ -8324,13 +8351,13 @@
         <v>146651</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="M20" s="7">
         <v>323</v>
@@ -8339,19 +8366,19 @@
         <v>251733</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7">
         <v>37</v>
@@ -8360,13 +8387,13 @@
         <v>32436</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
@@ -8375,13 +8402,13 @@
         <v>33319</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="M21" s="7">
         <v>87</v>
@@ -8390,19 +8417,19 @@
         <v>65755</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>690</v>
+        <v>302</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>691</v>
+        <v>307</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
         <v>12</v>
@@ -8411,13 +8438,13 @@
         <v>12554</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>158</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -8426,13 +8453,13 @@
         <v>16025</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>211</v>
+        <v>548</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>694</v>
+        <v>355</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -8441,19 +8468,19 @@
         <v>28579</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
         <v>9</v>
@@ -8462,13 +8489,13 @@
         <v>12433</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>445</v>
+        <v>708</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -8477,13 +8504,13 @@
         <v>6530</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>658</v>
+        <v>409</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -8492,13 +8519,13 @@
         <v>18963</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>699</v>
+        <v>407</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8566,13 +8593,13 @@
         <v>1503217</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="H25" s="7">
         <v>1855</v>
@@ -8581,13 +8608,13 @@
         <v>1339685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="M25" s="7">
         <v>3295</v>
@@ -8596,13 +8623,13 @@
         <v>2842902</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8617,13 +8644,13 @@
         <v>833315</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="H26" s="7">
         <v>1338</v>
@@ -8632,13 +8659,13 @@
         <v>930757</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="M26" s="7">
         <v>2160</v>
@@ -8647,10 +8674,10 @@
         <v>1764072</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>37</v>
@@ -8668,13 +8695,13 @@
         <v>674231</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="H27" s="7">
         <v>1333</v>
@@ -8683,13 +8710,13 @@
         <v>988673</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>719</v>
+        <v>286</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="M27" s="7">
         <v>2037</v>
@@ -8698,19 +8725,19 @@
         <v>1662904</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
         <v>220</v>
@@ -8719,13 +8746,13 @@
         <v>193722</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>440</v>
+        <v>734</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="H28" s="7">
         <v>439</v>
@@ -8734,13 +8761,13 @@
         <v>290498</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="M28" s="7">
         <v>659</v>
@@ -8749,19 +8776,19 @@
         <v>484220</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
         <v>109</v>
@@ -8770,13 +8797,13 @@
         <v>100965</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>614</v>
+        <v>59</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="H29" s="7">
         <v>262</v>
@@ -8785,13 +8812,13 @@
         <v>172641</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>730</v>
+        <v>346</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>651</v>
+        <v>397</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -8800,19 +8827,19 @@
         <v>273606</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>606</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
         <v>66</v>
@@ -8821,13 +8848,13 @@
         <v>67718</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>402</v>
+        <v>173</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="H30" s="7">
         <v>118</v>
@@ -8836,13 +8863,13 @@
         <v>73293</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="M30" s="7">
         <v>184</v>
@@ -8851,13 +8878,13 @@
         <v>141011</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1203-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1203-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC58C370-DEAC-4E64-B681-D4FF7A6CF4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1265B45D-69E9-46B8-B721-D33B79D88AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{713DA955-CB0F-4BCC-9F19-0F47914B1BFA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{839D73D6-2105-4D55-8078-82EAD2A3E5C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="756">
   <si>
     <t>Población según frecuencia de sentirse desanimado y triste en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,2209 +77,2236 @@
     <t>40,43%</t>
   </si>
   <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
   </si>
   <si>
     <t>33,61%</t>
   </si>
   <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>Sólo alguna vez</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>Algunas Veces</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>Muchas Veces</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>Casi Siempre</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de sentirse desanimado y triste en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de sentirse desanimado y triste en 2016 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
     <t>31,29%</t>
   </si>
   <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>Sólo alguna vez</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>Algunas Veces</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de sentirse desanimado y triste en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
   </si>
   <si>
     <t>27,47%</t>
   </si>
   <si>
-    <t>Muchas Veces</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>Casi Siempre</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de sentirse desanimado y triste en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de sentirse desanimado y triste en 2016 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de sentirse desanimado y triste en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>2,34%</t>
+    <t>2,35%</t>
   </si>
 </sst>
 </file>
@@ -2691,7 +2718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11217A6C-1935-470E-AB66-A6170E11542B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED68969-69AB-487E-8188-87975124EE03}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3103,10 +3130,10 @@
         <v>67</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3148,13 @@
         <v>1031723</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>1291</v>
@@ -3136,13 +3163,13 @@
         <v>1315113</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>2329</v>
@@ -3151,18 +3178,18 @@
         <v>2346836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -3174,13 +3201,13 @@
         <v>1082048</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>801</v>
@@ -3189,13 +3216,13 @@
         <v>812296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>1862</v>
@@ -3204,13 +3231,13 @@
         <v>1894344</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,13 +3252,13 @@
         <v>364311</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>379</v>
@@ -3240,13 +3267,13 @@
         <v>388243</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>725</v>
@@ -3255,13 +3282,13 @@
         <v>752554</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3303,13 @@
         <v>189459</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>274</v>
@@ -3291,13 +3318,13 @@
         <v>284524</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>462</v>
@@ -3306,13 +3333,13 @@
         <v>473983</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,7 +3354,7 @@
         <v>39218</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>99</v>
@@ -3360,10 +3387,10 @@
         <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,13 +3405,13 @@
         <v>11799</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H15" s="7">
         <v>22</v>
@@ -3393,13 +3420,13 @@
         <v>22344</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M15" s="7">
         <v>33</v>
@@ -3408,13 +3435,13 @@
         <v>34143</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3456,13 @@
         <v>6577</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -3444,13 +3471,13 @@
         <v>19263</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -3459,7 +3486,7 @@
         <v>25841</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>121</v>
@@ -3477,16 +3504,16 @@
         <v>1649</v>
       </c>
       <c r="D17" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>1554</v>
@@ -3495,13 +3522,13 @@
         <v>1587673</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>3203</v>
@@ -3510,13 +3537,13 @@
         <v>3281086</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3611,13 @@
         <v>134104</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
@@ -3599,13 +3626,13 @@
         <v>107156</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>228</v>
@@ -3614,13 +3641,13 @@
         <v>241260</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3662,13 @@
         <v>64375</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -3650,13 +3677,13 @@
         <v>88592</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>145</v>
@@ -3665,13 +3692,13 @@
         <v>152967</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3713,13 @@
         <v>7496</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -3701,13 +3728,13 @@
         <v>15178</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -3716,13 +3743,13 @@
         <v>22674</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3764,13 @@
         <v>5443</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3752,13 +3779,13 @@
         <v>10804</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -3767,13 +3794,13 @@
         <v>16247</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3815,13 @@
         <v>1837</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3803,13 +3830,13 @@
         <v>6192</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -3818,13 +3845,13 @@
         <v>8029</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3866,13 @@
         <v>551408</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>452</v>
@@ -3854,13 +3881,13 @@
         <v>476412</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="7">
         <v>979</v>
@@ -3869,13 +3896,13 @@
         <v>1027820</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,16 +3916,16 @@
         <v>1806</v>
       </c>
       <c r="D25" s="7">
-        <v>1837314</v>
+        <v>1837315</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>1477</v>
@@ -3907,13 +3934,13 @@
         <v>1502825</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>3283</v>
@@ -3922,13 +3949,13 @@
         <v>3340139</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3970,13 @@
         <v>776323</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>832</v>
@@ -3958,28 +3985,28 @@
         <v>855986</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>1589</v>
       </c>
       <c r="N26" s="7">
-        <v>1632309</v>
+        <v>1632308</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +4021,13 @@
         <v>496861</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H27" s="7">
         <v>711</v>
@@ -4009,28 +4036,28 @@
         <v>733861</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M27" s="7">
         <v>1200</v>
       </c>
       <c r="N27" s="7">
-        <v>1230722</v>
+        <v>1230721</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4072,13 @@
         <v>116457</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H28" s="7">
         <v>175</v>
@@ -4060,13 +4087,13 @@
         <v>179591</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M28" s="7">
         <v>289</v>
@@ -4075,13 +4102,13 @@
         <v>296048</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4123,13 @@
         <v>32909</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="H29" s="7">
         <v>58</v>
@@ -4111,13 +4138,13 @@
         <v>58976</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M29" s="7">
         <v>89</v>
@@ -4126,13 +4153,13 @@
         <v>91884</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4174,13 @@
         <v>16680</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H30" s="7">
         <v>44</v>
@@ -4162,13 +4189,13 @@
         <v>47959</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M30" s="7">
         <v>61</v>
@@ -4177,13 +4204,13 @@
         <v>64639</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,16 +4222,16 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H31" s="7">
         <v>3297</v>
@@ -4213,33 +4240,33 @@
         <v>3379198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M31" s="7">
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4258,7 +4285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328B735-864A-4CB7-BCAB-5C673E09A0B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897F15FA-8975-45DF-A4F5-005A060B5FE8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4275,7 +4302,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4382,13 +4409,13 @@
         <v>305475</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>279</v>
@@ -4397,13 +4424,13 @@
         <v>306189</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>568</v>
@@ -4412,13 +4439,13 @@
         <v>611664</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4460,13 @@
         <v>304410</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>351</v>
@@ -4448,13 +4475,13 @@
         <v>373728</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>635</v>
@@ -4463,13 +4490,13 @@
         <v>678138</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4511,13 @@
         <v>228237</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H6" s="7">
         <v>381</v>
@@ -4499,13 +4526,13 @@
         <v>404619</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M6" s="7">
         <v>589</v>
@@ -4514,13 +4541,13 @@
         <v>632857</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4562,13 @@
         <v>68178</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -4550,13 +4577,13 @@
         <v>136658</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>192</v>
@@ -4565,13 +4592,13 @@
         <v>204836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4613,13 @@
         <v>46256</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>67</v>
@@ -4601,13 +4628,13 @@
         <v>71903</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -4616,13 +4643,13 @@
         <v>118159</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4664,13 @@
         <v>19990</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>266</v>
+        <v>109</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7">
         <v>40</v>
@@ -4652,13 +4679,13 @@
         <v>43749</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -4667,13 +4694,13 @@
         <v>63738</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4715,13 @@
         <v>972546</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>1246</v>
@@ -4703,13 +4730,13 @@
         <v>1336846</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>2152</v>
@@ -4718,18 +4745,18 @@
         <v>2309392</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -4741,13 +4768,13 @@
         <v>940036</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>620</v>
@@ -4756,13 +4783,13 @@
         <v>664228</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1511</v>
@@ -4771,13 +4798,13 @@
         <v>1604263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4819,13 @@
         <v>549631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>459</v>
@@ -4807,13 +4834,13 @@
         <v>492499</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M12" s="7">
         <v>980</v>
@@ -4822,13 +4849,13 @@
         <v>1042130</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4870,13 @@
         <v>348720</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>380</v>
@@ -4858,13 +4885,13 @@
         <v>407362</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
         <v>705</v>
@@ -4873,13 +4900,13 @@
         <v>756082</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,13 +4921,13 @@
         <v>74013</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
@@ -4909,13 +4936,13 @@
         <v>91732</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>155</v>
@@ -4924,13 +4951,13 @@
         <v>165745</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4972,13 @@
         <v>36757</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H15" s="7">
         <v>62</v>
@@ -4960,13 +4987,13 @@
         <v>68326</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M15" s="7">
         <v>95</v>
@@ -4975,13 +5002,13 @@
         <v>105083</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +5023,13 @@
         <v>12261</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -5011,13 +5038,13 @@
         <v>29635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>53</v>
+        <v>323</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -5026,13 +5053,13 @@
         <v>41896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5074,13 @@
         <v>1961418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>1631</v>
@@ -5062,13 +5089,13 @@
         <v>1753782</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>3485</v>
@@ -5077,13 +5104,13 @@
         <v>3715200</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5127,13 @@
         <v>244106</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H18" s="7">
         <v>174</v>
@@ -5115,13 +5142,13 @@
         <v>191956</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M18" s="7">
         <v>405</v>
@@ -5130,13 +5157,13 @@
         <v>436063</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5178,13 @@
         <v>150072</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>188</v>
+        <v>336</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H19" s="7">
         <v>140</v>
@@ -5166,13 +5193,13 @@
         <v>151971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="M19" s="7">
         <v>272</v>
@@ -5181,13 +5208,13 @@
         <v>302042</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5229,13 @@
         <v>68770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
@@ -5217,13 +5244,13 @@
         <v>85421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -5232,13 +5259,13 @@
         <v>154191</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5280,13 @@
         <v>11098</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>219</v>
+        <v>354</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -5268,13 +5295,13 @@
         <v>14800</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -5283,13 +5310,13 @@
         <v>25898</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5331,13 @@
         <v>5263</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>169</v>
+        <v>361</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -5319,13 +5346,13 @@
         <v>13419</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -5334,13 +5361,13 @@
         <v>18682</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5382,13 @@
         <v>935</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>219</v>
+        <v>369</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5370,13 +5397,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -5385,13 +5412,13 @@
         <v>935</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5433,13 @@
         <v>480244</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>411</v>
@@ -5421,13 +5448,13 @@
         <v>457567</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="7">
         <v>848</v>
@@ -5436,13 +5463,13 @@
         <v>937811</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5486,13 @@
         <v>1489617</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="H25" s="7">
         <v>1073</v>
@@ -5474,13 +5501,13 @@
         <v>1162373</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="M25" s="7">
         <v>2484</v>
@@ -5489,13 +5516,13 @@
         <v>2651990</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5537,13 @@
         <v>1004112</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="H26" s="7">
         <v>950</v>
@@ -5525,13 +5552,13 @@
         <v>1018198</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="M26" s="7">
         <v>1887</v>
@@ -5540,13 +5567,13 @@
         <v>2022311</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5588,13 @@
         <v>645728</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="H27" s="7">
         <v>837</v>
@@ -5576,13 +5603,13 @@
         <v>897402</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M27" s="7">
         <v>1429</v>
@@ -5591,13 +5618,13 @@
         <v>1543130</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5639,13 @@
         <v>153289</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>101</v>
+        <v>402</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="H28" s="7">
         <v>223</v>
@@ -5627,13 +5654,13 @@
         <v>243190</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="M28" s="7">
         <v>368</v>
@@ -5642,13 +5669,13 @@
         <v>396479</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5690,13 @@
         <v>88276</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="H29" s="7">
         <v>138</v>
@@ -5678,13 +5705,13 @@
         <v>153647</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="M29" s="7">
         <v>219</v>
@@ -5693,13 +5720,13 @@
         <v>241923</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5741,13 @@
         <v>33185</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>118</v>
+        <v>419</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="H30" s="7">
         <v>67</v>
@@ -5729,13 +5756,13 @@
         <v>73384</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>409</v>
+        <v>166</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="M30" s="7">
         <v>98</v>
@@ -5744,13 +5771,13 @@
         <v>106569</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>173</v>
+        <v>423</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>412</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,28 +5792,28 @@
         <v>3414208</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H31" s="7">
         <v>3288</v>
       </c>
       <c r="I31" s="7">
-        <v>3548195</v>
+        <v>3548194</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M31" s="7">
         <v>6485</v>
@@ -5795,18 +5822,18 @@
         <v>6962403</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5825,7 +5852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618BCB7F-ADCB-47A0-A436-BFFE48E3D3A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FAD8FE-C06D-44B5-A58D-456A7F2EC011}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5842,7 +5869,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5949,13 +5976,13 @@
         <v>226889</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>428</v>
       </c>
       <c r="H4" s="7">
         <v>192</v>
@@ -5964,13 +5991,13 @@
         <v>213813</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7">
         <v>417</v>
@@ -5979,13 +6006,13 @@
         <v>440702</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +6027,13 @@
         <v>222788</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="H5" s="7">
         <v>243</v>
@@ -6015,13 +6042,13 @@
         <v>268350</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="M5" s="7">
         <v>469</v>
@@ -6030,13 +6057,13 @@
         <v>491137</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6078,13 @@
         <v>203407</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>431</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="H6" s="7">
         <v>269</v>
@@ -6066,13 +6093,13 @@
         <v>298862</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="M6" s="7">
         <v>475</v>
@@ -6081,13 +6108,13 @@
         <v>502269</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>229</v>
+        <v>448</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6129,13 @@
         <v>59015</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="H7" s="7">
         <v>94</v>
@@ -6117,13 +6144,13 @@
         <v>106557</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="M7" s="7">
         <v>155</v>
@@ -6132,13 +6159,13 @@
         <v>165572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6180,13 @@
         <v>26652</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -6168,13 +6195,13 @@
         <v>68538</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="M8" s="7">
         <v>88</v>
@@ -6183,13 +6210,13 @@
         <v>95190</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>306</v>
+        <v>466</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6204,13 +6231,13 @@
         <v>14609</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>100</v>
+        <v>469</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -6219,13 +6246,13 @@
         <v>36425</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>457</v>
+        <v>311</v>
       </c>
       <c r="M9" s="7">
         <v>47</v>
@@ -6234,13 +6261,13 @@
         <v>51034</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>271</v>
+        <v>473</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,13 +6282,13 @@
         <v>753360</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>890</v>
@@ -6270,13 +6297,13 @@
         <v>992544</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>1651</v>
@@ -6285,18 +6312,18 @@
         <v>1745904</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -6308,13 +6335,13 @@
         <v>873373</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="H11" s="7">
         <v>682</v>
@@ -6323,13 +6350,13 @@
         <v>700413</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="M11" s="7">
         <v>1505</v>
@@ -6338,13 +6365,13 @@
         <v>1573786</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,13 +6386,13 @@
         <v>701825</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="H12" s="7">
         <v>637</v>
@@ -6374,13 +6401,13 @@
         <v>658431</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="M12" s="7">
         <v>1301</v>
@@ -6389,13 +6416,13 @@
         <v>1360256</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6437,13 @@
         <v>377151</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>95</v>
       </c>
       <c r="H13" s="7">
         <v>424</v>
@@ -6425,13 +6452,13 @@
         <v>448590</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>480</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="M13" s="7">
         <v>775</v>
@@ -6440,13 +6467,13 @@
         <v>825741</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>482</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,13 +6488,13 @@
         <v>64132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>485</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>486</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="H14" s="7">
         <v>90</v>
@@ -6476,13 +6503,13 @@
         <v>99907</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="M14" s="7">
         <v>151</v>
@@ -6491,13 +6518,13 @@
         <v>164040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,13 +6539,13 @@
         <v>26593</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>411</v>
+        <v>506</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -6527,13 +6554,13 @@
         <v>52630</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>496</v>
+        <v>69</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="M15" s="7">
         <v>73</v>
@@ -6542,13 +6569,13 @@
         <v>79223</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>499</v>
+        <v>166</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>269</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6590,13 @@
         <v>29025</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>500</v>
+        <v>364</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>501</v>
+        <v>111</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6578,13 +6605,13 @@
         <v>24453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>266</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -6593,13 +6620,13 @@
         <v>53479</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>158</v>
+        <v>515</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>350</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,13 +6641,13 @@
         <v>2072100</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>1904</v>
@@ -6629,13 +6656,13 @@
         <v>1984425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>3852</v>
@@ -6644,13 +6671,13 @@
         <v>4056524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6694,13 @@
         <v>254908</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="H18" s="7">
         <v>208</v>
@@ -6682,13 +6709,13 @@
         <v>217168</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="M18" s="7">
         <v>445</v>
@@ -6697,13 +6724,13 @@
         <v>472075</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6745,13 @@
         <v>182009</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="H19" s="7">
         <v>186</v>
@@ -6733,13 +6760,13 @@
         <v>194475</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="M19" s="7">
         <v>354</v>
@@ -6748,13 +6775,13 @@
         <v>376484</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6796,13 @@
         <v>80779</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="H20" s="7">
         <v>108</v>
@@ -6784,13 +6811,13 @@
         <v>112555</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>526</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="M20" s="7">
         <v>178</v>
@@ -6799,13 +6826,13 @@
         <v>193334</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6847,13 @@
         <v>18230</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -6835,13 +6862,13 @@
         <v>11600</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>162</v>
+        <v>468</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="M21" s="7">
         <v>27</v>
@@ -6850,13 +6877,13 @@
         <v>29830</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,13 +6898,13 @@
         <v>5821</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>540</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -6886,13 +6913,13 @@
         <v>7296</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>543</v>
+        <v>172</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6901,13 +6928,13 @@
         <v>13117</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>408</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6922,13 +6949,13 @@
         <v>5140</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -6937,13 +6964,13 @@
         <v>4976</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>501</v>
+        <v>52</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>549</v>
+        <v>473</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -6952,13 +6979,13 @@
         <v>10116</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,13 +7000,13 @@
         <v>546886</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>525</v>
@@ -6988,13 +7015,13 @@
         <v>548070</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="7">
         <v>1026</v>
@@ -7003,13 +7030,13 @@
         <v>1094956</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,13 +7053,13 @@
         <v>1355170</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="H25" s="7">
         <v>1082</v>
@@ -7041,13 +7068,13 @@
         <v>1131394</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>557</v>
+        <v>242</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="M25" s="7">
         <v>2367</v>
@@ -7056,13 +7083,13 @@
         <v>2486564</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>559</v>
+        <v>486</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,28 +7104,28 @@
         <v>1106621</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="H26" s="7">
         <v>1066</v>
       </c>
       <c r="I26" s="7">
-        <v>1121257</v>
+        <v>1121256</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="M26" s="7">
         <v>2124</v>
@@ -7107,13 +7134,13 @@
         <v>2227878</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>329</v>
+        <v>574</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7155,13 @@
         <v>661337</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="H27" s="7">
         <v>801</v>
@@ -7143,28 +7170,28 @@
         <v>860007</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>86</v>
+        <v>580</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="M27" s="7">
         <v>1428</v>
       </c>
       <c r="N27" s="7">
-        <v>1521343</v>
+        <v>1521344</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>583</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>576</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7206,13 @@
         <v>141378</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>304</v>
+        <v>584</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>446</v>
+        <v>202</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="H28" s="7">
         <v>195</v>
@@ -7194,13 +7221,13 @@
         <v>218064</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="M28" s="7">
         <v>333</v>
@@ -7209,13 +7236,13 @@
         <v>359442</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>308</v>
+        <v>589</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7257,13 @@
         <v>59067</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>211</v>
+        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>116</v>
@@ -7245,13 +7272,13 @@
         <v>128464</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>104</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>584</v>
+        <v>355</v>
       </c>
       <c r="M29" s="7">
         <v>173</v>
@@ -7260,13 +7287,13 @@
         <v>187530</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>98</v>
+        <v>353</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>267</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7281,13 +7308,13 @@
         <v>48774</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>114</v>
+        <v>593</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>162</v>
+        <v>594</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>533</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>59</v>
@@ -7296,13 +7323,13 @@
         <v>65854</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>156</v>
+        <v>595</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="M30" s="7">
         <v>104</v>
@@ -7311,13 +7338,13 @@
         <v>114628</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>149</v>
+        <v>598</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>549</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7332,48 +7359,48 @@
         <v>3372346</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H31" s="7">
         <v>3319</v>
       </c>
       <c r="I31" s="7">
-        <v>3525040</v>
+        <v>3525039</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M31" s="7">
         <v>6529</v>
       </c>
       <c r="N31" s="7">
-        <v>6897385</v>
+        <v>6897386</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -7392,7 +7419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B29135D-BD67-4227-A0E6-AC3B22781D6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3C86AD-8DB3-4AC2-B3E1-56ADEA5A9148}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7409,7 +7436,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7516,13 +7543,13 @@
         <v>185258</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>588</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="H4" s="7">
         <v>293</v>
@@ -7531,13 +7558,13 @@
         <v>173517</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>593</v>
+        <v>400</v>
       </c>
       <c r="M4" s="7">
         <v>533</v>
@@ -7546,13 +7573,13 @@
         <v>358775</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,13 +7594,13 @@
         <v>113451</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="H5" s="7">
         <v>329</v>
@@ -7582,13 +7609,13 @@
         <v>186012</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>602</v>
+        <v>438</v>
       </c>
       <c r="M5" s="7">
         <v>472</v>
@@ -7597,13 +7624,13 @@
         <v>299463</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>605</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7618,13 +7645,13 @@
         <v>141955</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>606</v>
+        <v>435</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="H6" s="7">
         <v>444</v>
@@ -7633,13 +7660,13 @@
         <v>259997</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>368</v>
+        <v>617</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="M6" s="7">
         <v>625</v>
@@ -7648,13 +7675,13 @@
         <v>401951</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>335</v>
+        <v>620</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7669,13 +7696,13 @@
         <v>48374</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>613</v>
+        <v>462</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="H7" s="7">
         <v>186</v>
@@ -7684,13 +7711,13 @@
         <v>111481</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="M7" s="7">
         <v>251</v>
@@ -7699,13 +7726,13 @@
         <v>159854</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,13 +7747,13 @@
         <v>31852</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>632</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="H8" s="7">
         <v>122</v>
@@ -7735,13 +7762,13 @@
         <v>74505</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="M8" s="7">
         <v>160</v>
@@ -7750,13 +7777,13 @@
         <v>106357</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7771,13 +7798,13 @@
         <v>20248</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>105</v>
+        <v>639</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>273</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -7786,13 +7813,13 @@
         <v>28320</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>631</v>
+        <v>208</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -7801,13 +7828,13 @@
         <v>48568</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7822,13 +7849,13 @@
         <v>541138</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>1423</v>
@@ -7837,13 +7864,13 @@
         <v>833831</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>2113</v>
@@ -7852,18 +7879,18 @@
         <v>1374968</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -7875,13 +7902,13 @@
         <v>978120</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="H11" s="7">
         <v>1115</v>
@@ -7890,13 +7917,13 @@
         <v>847815</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="M11" s="7">
         <v>1984</v>
@@ -7905,13 +7932,13 @@
         <v>1825935</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7926,13 +7953,13 @@
         <v>549168</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>227</v>
+        <v>654</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="H12" s="7">
         <v>747</v>
@@ -7941,13 +7968,13 @@
         <v>551737</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>646</v>
+        <v>134</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>137</v>
+        <v>657</v>
       </c>
       <c r="M12" s="7">
         <v>1249</v>
@@ -7956,13 +7983,13 @@
         <v>1100905</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7977,13 +8004,13 @@
         <v>427194</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>650</v>
+        <v>297</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="H13" s="7">
         <v>681</v>
@@ -7992,13 +8019,13 @@
         <v>582026</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="M13" s="7">
         <v>1089</v>
@@ -8007,13 +8034,13 @@
         <v>1009219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>657</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8028,13 +8055,13 @@
         <v>112913</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="H14" s="7">
         <v>203</v>
@@ -8043,13 +8070,13 @@
         <v>145698</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>661</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="M14" s="7">
         <v>321</v>
@@ -8058,13 +8085,13 @@
         <v>258611</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>672</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,13 +8106,13 @@
         <v>56560</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>533</v>
+        <v>120</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="H15" s="7">
         <v>116</v>
@@ -8094,13 +8121,13 @@
         <v>82111</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="M15" s="7">
         <v>175</v>
@@ -8109,13 +8136,13 @@
         <v>138670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>670</v>
+        <v>168</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>300</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,13 +8157,13 @@
         <v>35037</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>680</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>671</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -8148,10 +8175,10 @@
         <v>64</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>683</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -8160,13 +8187,13 @@
         <v>73480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>514</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>271</v>
+        <v>685</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8181,13 +8208,13 @@
         <v>2158991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>2918</v>
@@ -8196,13 +8223,13 @@
         <v>2247829</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>4908</v>
@@ -8211,13 +8238,13 @@
         <v>4406820</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,13 +8261,13 @@
         <v>339839</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="H18" s="7">
         <v>447</v>
@@ -8249,13 +8276,13 @@
         <v>318353</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="M18" s="7">
         <v>778</v>
@@ -8264,13 +8291,13 @@
         <v>658192</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,13 +8312,13 @@
         <v>170696</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="H19" s="7">
         <v>262</v>
@@ -8300,13 +8327,13 @@
         <v>193008</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>381</v>
+        <v>699</v>
       </c>
       <c r="M19" s="7">
         <v>439</v>
@@ -8315,13 +8342,13 @@
         <v>363704</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>605</v>
+        <v>701</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8336,13 +8363,13 @@
         <v>105082</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="H20" s="7">
         <v>208</v>
@@ -8351,13 +8378,13 @@
         <v>146651</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>526</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="M20" s="7">
         <v>323</v>
@@ -8366,13 +8393,13 @@
         <v>251733</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8387,13 +8414,13 @@
         <v>32436</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>699</v>
+        <v>356</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
@@ -8402,13 +8429,13 @@
         <v>33319</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>699</v>
+        <v>542</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>702</v>
+        <v>45</v>
       </c>
       <c r="M21" s="7">
         <v>87</v>
@@ -8417,13 +8444,13 @@
         <v>65755</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>302</v>
+        <v>713</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>307</v>
+        <v>591</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8438,13 +8465,13 @@
         <v>12554</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>704</v>
+        <v>542</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -8453,13 +8480,13 @@
         <v>16025</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>548</v>
+        <v>715</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>355</v>
+        <v>593</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>705</v>
+        <v>459</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -8468,13 +8495,13 @@
         <v>28579</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>595</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8489,13 +8516,13 @@
         <v>12433</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>707</v>
+        <v>508</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -8504,13 +8531,13 @@
         <v>6530</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>501</v>
+        <v>52</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>709</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>409</v>
+        <v>718</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -8519,13 +8546,13 @@
         <v>18963</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>407</v>
+        <v>598</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>710</v>
+        <v>220</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8540,13 +8567,13 @@
         <v>673039</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>1004</v>
@@ -8555,13 +8582,13 @@
         <v>713886</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="7">
         <v>1685</v>
@@ -8570,13 +8597,13 @@
         <v>1386926</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8593,13 +8620,13 @@
         <v>1503217</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>712</v>
+        <v>329</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="H25" s="7">
         <v>1855</v>
@@ -8608,13 +8635,13 @@
         <v>1339685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="M25" s="7">
         <v>3295</v>
@@ -8623,13 +8650,13 @@
         <v>2842902</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8644,13 +8671,13 @@
         <v>833315</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>720</v>
+        <v>231</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="H26" s="7">
         <v>1338</v>
@@ -8659,13 +8686,13 @@
         <v>930757</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="M26" s="7">
         <v>2160</v>
@@ -8674,13 +8701,13 @@
         <v>1764072</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>725</v>
+        <v>400</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>37</v>
+        <v>731</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8695,13 +8722,13 @@
         <v>674231</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="H27" s="7">
         <v>1333</v>
@@ -8710,13 +8737,13 @@
         <v>988673</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>286</v>
+        <v>735</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>730</v>
+        <v>525</v>
       </c>
       <c r="M27" s="7">
         <v>2037</v>
@@ -8725,13 +8752,13 @@
         <v>1662904</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>644</v>
+        <v>739</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8746,13 +8773,13 @@
         <v>193722</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="H28" s="7">
         <v>439</v>
@@ -8761,13 +8788,13 @@
         <v>290498</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>662</v>
+        <v>743</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>393</v>
+        <v>744</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="M28" s="7">
         <v>659</v>
@@ -8776,13 +8803,13 @@
         <v>484220</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8797,13 +8824,13 @@
         <v>100965</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>749</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>683</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>666</v>
+        <v>750</v>
       </c>
       <c r="H29" s="7">
         <v>262</v>
@@ -8812,13 +8839,13 @@
         <v>172641</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>346</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>740</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>397</v>
+        <v>751</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -8827,13 +8854,13 @@
         <v>273606</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>742</v>
+        <v>367</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>667</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8848,13 +8875,13 @@
         <v>67718</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>743</v>
+        <v>599</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>537</v>
+        <v>674</v>
       </c>
       <c r="H30" s="7">
         <v>118</v>
@@ -8863,13 +8890,13 @@
         <v>73293</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>533</v>
+        <v>753</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>744</v>
+        <v>166</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>672</v>
+        <v>596</v>
       </c>
       <c r="M30" s="7">
         <v>184</v>
@@ -8878,13 +8905,13 @@
         <v>141011</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>586</v>
+        <v>684</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8899,13 +8926,13 @@
         <v>3373168</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H31" s="7">
         <v>5345</v>
@@ -8914,33 +8941,33 @@
         <v>3795546</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M31" s="7">
         <v>8706</v>
       </c>
       <c r="N31" s="7">
-        <v>7168715</v>
+        <v>7168714</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1203-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1203-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1265B45D-69E9-46B8-B721-D33B79D88AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D936B64-D48B-467C-83F5-CD9488A83FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{839D73D6-2105-4D55-8078-82EAD2A3E5C6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E8186A35-96B3-4993-8C6B-B02519B27754}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="771">
   <si>
     <t>Población según frecuencia de sentirse desanimado y triste en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -1844,469 +1844,514 @@
     <t>Población según frecuencia de sentirse desanimado y triste en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
   <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>22,31%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>2,35%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
 </sst>
 </file>
@@ -2718,7 +2763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED68969-69AB-487E-8188-87975124EE03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6446E9-CA2A-487A-9744-138CF16E7D9F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2869,7 +2914,7 @@
         <v>859</v>
       </c>
       <c r="N4" s="7">
-        <v>859153</v>
+        <v>859152</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2920,7 +2965,7 @@
         <v>636</v>
       </c>
       <c r="N5" s="7">
-        <v>638495</v>
+        <v>638494</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -3175,7 +3220,7 @@
         <v>2329</v>
       </c>
       <c r="N10" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>70</v>
@@ -3504,7 +3549,7 @@
         <v>1649</v>
       </c>
       <c r="D17" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
@@ -3916,7 +3961,7 @@
         <v>1806</v>
       </c>
       <c r="D25" s="7">
-        <v>1837315</v>
+        <v>1837314</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>175</v>
@@ -3997,7 +4042,7 @@
         <v>1589</v>
       </c>
       <c r="N26" s="7">
-        <v>1632308</v>
+        <v>1632309</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>190</v>
@@ -4048,7 +4093,7 @@
         <v>1200</v>
       </c>
       <c r="N27" s="7">
-        <v>1230721</v>
+        <v>1230722</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>199</v>
@@ -4222,7 +4267,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>70</v>
@@ -4237,7 +4282,7 @@
         <v>3297</v>
       </c>
       <c r="I31" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>70</v>
@@ -4252,7 +4297,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
@@ -4285,7 +4330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897F15FA-8975-45DF-A4F5-005A060B5FE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A5DA93-10D8-4773-809A-59ECB9E9E951}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4765,7 +4810,7 @@
         <v>891</v>
       </c>
       <c r="D11" s="7">
-        <v>940036</v>
+        <v>940035</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>278</v>
@@ -5071,7 +5116,7 @@
         <v>1854</v>
       </c>
       <c r="D17" s="7">
-        <v>1961418</v>
+        <v>1961417</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
@@ -5804,7 +5849,7 @@
         <v>3288</v>
       </c>
       <c r="I31" s="7">
-        <v>3548194</v>
+        <v>3548195</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>70</v>
@@ -5852,7 +5897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FAD8FE-C06D-44B5-A58D-456A7F2EC011}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AD3B18-E6E7-4AFF-9A3A-04DFE0F2D1F9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6668,7 +6713,7 @@
         <v>3852</v>
       </c>
       <c r="N17" s="7">
-        <v>4056524</v>
+        <v>4056525</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -6721,7 +6766,7 @@
         <v>445</v>
       </c>
       <c r="N18" s="7">
-        <v>472075</v>
+        <v>472076</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>522</v>
@@ -7027,7 +7072,7 @@
         <v>1026</v>
       </c>
       <c r="N24" s="7">
-        <v>1094956</v>
+        <v>1094957</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>70</v>
@@ -7182,7 +7227,7 @@
         <v>1428</v>
       </c>
       <c r="N27" s="7">
-        <v>1521344</v>
+        <v>1521343</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>582</v>
@@ -7386,7 +7431,7 @@
         <v>6529</v>
       </c>
       <c r="N31" s="7">
-        <v>6897386</v>
+        <v>6897385</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
@@ -7419,7 +7464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3C86AD-8DB3-4AC2-B3E1-56ADEA5A9148}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365B2229-56DA-440A-9719-8E849338ABDF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7540,46 +7585,46 @@
         <v>240</v>
       </c>
       <c r="D4" s="7">
-        <v>185258</v>
+        <v>183165</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>601</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H4" s="7">
         <v>293</v>
       </c>
       <c r="I4" s="7">
-        <v>173517</v>
+        <v>161755</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>400</v>
+        <v>606</v>
       </c>
       <c r="M4" s="7">
         <v>533</v>
       </c>
       <c r="N4" s="7">
-        <v>358775</v>
+        <v>344920</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,46 +7636,46 @@
         <v>143</v>
       </c>
       <c r="D5" s="7">
-        <v>113451</v>
+        <v>107367</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>609</v>
+        <v>295</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H5" s="7">
         <v>329</v>
       </c>
       <c r="I5" s="7">
-        <v>186012</v>
+        <v>170389</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>611</v>
+        <v>495</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>612</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>438</v>
+        <v>613</v>
       </c>
       <c r="M5" s="7">
         <v>472</v>
       </c>
       <c r="N5" s="7">
-        <v>299463</v>
+        <v>277756</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,46 +7687,46 @@
         <v>181</v>
       </c>
       <c r="D6" s="7">
-        <v>141955</v>
+        <v>132281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>435</v>
+        <v>617</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="H6" s="7">
         <v>444</v>
       </c>
       <c r="I6" s="7">
-        <v>259997</v>
+        <v>233513</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="M6" s="7">
         <v>625</v>
       </c>
       <c r="N6" s="7">
-        <v>401951</v>
+        <v>365794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,46 +7738,46 @@
         <v>65</v>
       </c>
       <c r="D7" s="7">
-        <v>48374</v>
+        <v>43504</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>462</v>
+        <v>627</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>624</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>186</v>
       </c>
       <c r="I7" s="7">
-        <v>111481</v>
+        <v>97974</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="M7" s="7">
         <v>251</v>
       </c>
       <c r="N7" s="7">
-        <v>159854</v>
+        <v>141478</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,46 +7789,46 @@
         <v>38</v>
       </c>
       <c r="D8" s="7">
-        <v>31852</v>
+        <v>29388</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="H8" s="7">
         <v>122</v>
       </c>
       <c r="I8" s="7">
-        <v>74505</v>
+        <v>64339</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="M8" s="7">
         <v>160</v>
       </c>
       <c r="N8" s="7">
-        <v>106357</v>
+        <v>93727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,46 +7840,46 @@
         <v>23</v>
       </c>
       <c r="D9" s="7">
-        <v>20248</v>
+        <v>18761</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>273</v>
+        <v>644</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>28320</v>
+        <v>25574</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>641</v>
+        <v>367</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>208</v>
+        <v>647</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
       </c>
       <c r="N9" s="7">
-        <v>48568</v>
+        <v>44335</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>263</v>
+        <v>648</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,7 +7891,7 @@
         <v>690</v>
       </c>
       <c r="D10" s="7">
-        <v>541138</v>
+        <v>514467</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -7861,7 +7906,7 @@
         <v>1423</v>
       </c>
       <c r="I10" s="7">
-        <v>833831</v>
+        <v>753544</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>70</v>
@@ -7876,7 +7921,7 @@
         <v>2113</v>
       </c>
       <c r="N10" s="7">
-        <v>1374968</v>
+        <v>1268011</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>70</v>
@@ -7899,46 +7944,46 @@
         <v>869</v>
       </c>
       <c r="D11" s="7">
-        <v>978120</v>
+        <v>989634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>646</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="H11" s="7">
         <v>1115</v>
       </c>
       <c r="I11" s="7">
-        <v>847815</v>
+        <v>817413</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="M11" s="7">
         <v>1984</v>
       </c>
       <c r="N11" s="7">
-        <v>1825935</v>
+        <v>1807046</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7950,46 +7995,46 @@
         <v>502</v>
       </c>
       <c r="D12" s="7">
-        <v>549168</v>
+        <v>515451</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="H12" s="7">
         <v>747</v>
       </c>
       <c r="I12" s="7">
-        <v>551737</v>
+        <v>493678</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>134</v>
+        <v>663</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>657</v>
+        <v>395</v>
       </c>
       <c r="M12" s="7">
         <v>1249</v>
       </c>
       <c r="N12" s="7">
-        <v>1100905</v>
+        <v>1009129</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8001,46 +8046,46 @@
         <v>408</v>
       </c>
       <c r="D13" s="7">
-        <v>427194</v>
+        <v>593049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>297</v>
+        <v>441</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="H13" s="7">
         <v>681</v>
       </c>
       <c r="I13" s="7">
-        <v>582026</v>
+        <v>686882</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="M13" s="7">
         <v>1089</v>
       </c>
       <c r="N13" s="7">
-        <v>1009219</v>
+        <v>1279931</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>672</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>426</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8052,46 +8097,46 @@
         <v>118</v>
       </c>
       <c r="D14" s="7">
-        <v>112913</v>
+        <v>103300</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>306</v>
+        <v>675</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="H14" s="7">
         <v>203</v>
       </c>
       <c r="I14" s="7">
-        <v>145698</v>
+        <v>129215</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M14" s="7">
         <v>321</v>
       </c>
       <c r="N14" s="7">
-        <v>258611</v>
+        <v>232516</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,46 +8148,46 @@
         <v>59</v>
       </c>
       <c r="D15" s="7">
-        <v>56560</v>
+        <v>53145</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>674</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>509</v>
+        <v>676</v>
       </c>
       <c r="H15" s="7">
         <v>116</v>
       </c>
       <c r="I15" s="7">
-        <v>82111</v>
+        <v>73580</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="M15" s="7">
         <v>175</v>
       </c>
       <c r="N15" s="7">
-        <v>138670</v>
+        <v>126725</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>168</v>
+        <v>687</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>679</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,46 +8199,46 @@
         <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>35037</v>
+        <v>32813</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>122</v>
+        <v>557</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
       </c>
       <c r="I16" s="7">
-        <v>38443</v>
+        <v>35514</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>64</v>
+        <v>690</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>682</v>
+        <v>361</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>683</v>
+        <v>59</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
       </c>
       <c r="N16" s="7">
-        <v>73480</v>
+        <v>68327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>514</v>
+        <v>324</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8205,7 +8250,7 @@
         <v>1990</v>
       </c>
       <c r="D17" s="7">
-        <v>2158991</v>
+        <v>2287392</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
@@ -8220,7 +8265,7 @@
         <v>2918</v>
       </c>
       <c r="I17" s="7">
-        <v>2247829</v>
+        <v>2236282</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>70</v>
@@ -8235,7 +8280,7 @@
         <v>4908</v>
       </c>
       <c r="N17" s="7">
-        <v>4406820</v>
+        <v>4523674</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -8258,46 +8303,46 @@
         <v>331</v>
       </c>
       <c r="D18" s="7">
-        <v>339839</v>
+        <v>330097</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="H18" s="7">
         <v>447</v>
       </c>
       <c r="I18" s="7">
-        <v>318353</v>
+        <v>301003</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="M18" s="7">
         <v>778</v>
       </c>
       <c r="N18" s="7">
-        <v>658192</v>
+        <v>631100</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,46 +8354,46 @@
         <v>177</v>
       </c>
       <c r="D19" s="7">
-        <v>170696</v>
+        <v>160582</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="H19" s="7">
         <v>262</v>
       </c>
       <c r="I19" s="7">
-        <v>193008</v>
+        <v>174950</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>437</v>
+        <v>234</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="M19" s="7">
         <v>439</v>
       </c>
       <c r="N19" s="7">
-        <v>363704</v>
+        <v>335532</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8360,46 +8405,46 @@
         <v>115</v>
       </c>
       <c r="D20" s="7">
-        <v>105082</v>
+        <v>97621</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="H20" s="7">
         <v>208</v>
       </c>
       <c r="I20" s="7">
-        <v>146651</v>
+        <v>133028</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>713</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="M20" s="7">
         <v>323</v>
       </c>
       <c r="N20" s="7">
-        <v>251733</v>
+        <v>230650</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8411,28 +8456,28 @@
         <v>37</v>
       </c>
       <c r="D21" s="7">
-        <v>32436</v>
+        <v>30325</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>356</v>
+        <v>720</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>673</v>
+        <v>721</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
       </c>
       <c r="I21" s="7">
-        <v>33319</v>
+        <v>30476</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>542</v>
+        <v>723</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>45</v>
@@ -8441,16 +8486,16 @@
         <v>87</v>
       </c>
       <c r="N21" s="7">
-        <v>65755</v>
+        <v>60801</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>591</v>
+        <v>725</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8462,46 +8507,46 @@
         <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>12554</v>
+        <v>11730</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>727</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>211</v>
+        <v>728</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>542</v>
+        <v>676</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
       </c>
       <c r="I22" s="7">
-        <v>16025</v>
+        <v>14993</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>715</v>
+        <v>163</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>593</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>459</v>
+        <v>725</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
       </c>
       <c r="N22" s="7">
-        <v>28579</v>
+        <v>26723</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>512</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>595</v>
+        <v>213</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8513,22 +8558,22 @@
         <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>12433</v>
+        <v>16268</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>508</v>
+        <v>730</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>717</v>
+        <v>404</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
       </c>
       <c r="I23" s="7">
-        <v>6530</v>
+        <v>6013</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>52</v>
@@ -8537,22 +8582,22 @@
         <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>718</v>
+        <v>357</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
       </c>
       <c r="N23" s="7">
-        <v>18963</v>
+        <v>22280</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>598</v>
+        <v>217</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>220</v>
+        <v>354</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>642</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8564,7 +8609,7 @@
         <v>681</v>
       </c>
       <c r="D24" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>70</v>
@@ -8579,7 +8624,7 @@
         <v>1004</v>
       </c>
       <c r="I24" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>70</v>
@@ -8594,7 +8639,7 @@
         <v>1685</v>
       </c>
       <c r="N24" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>70</v>
@@ -8617,46 +8662,46 @@
         <v>1440</v>
       </c>
       <c r="D25" s="7">
-        <v>1503217</v>
+        <v>1502896</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>329</v>
+        <v>733</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>720</v>
+        <v>734</v>
       </c>
       <c r="H25" s="7">
         <v>1855</v>
       </c>
       <c r="I25" s="7">
-        <v>1339685</v>
+        <v>1280170</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>478</v>
+        <v>735</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>721</v>
+        <v>621</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="M25" s="7">
         <v>3295</v>
       </c>
       <c r="N25" s="7">
-        <v>2842902</v>
+        <v>2783066</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>725</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8668,46 +8713,46 @@
         <v>822</v>
       </c>
       <c r="D26" s="7">
-        <v>833315</v>
+        <v>783399</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>231</v>
+        <v>740</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="H26" s="7">
         <v>1338</v>
       </c>
       <c r="I26" s="7">
-        <v>930757</v>
+        <v>839018</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>742</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="M26" s="7">
         <v>2160</v>
       </c>
       <c r="N26" s="7">
-        <v>1764072</v>
+        <v>1622417</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>730</v>
+        <v>744</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>400</v>
+        <v>745</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8719,46 +8764,46 @@
         <v>704</v>
       </c>
       <c r="D27" s="7">
-        <v>674231</v>
+        <v>822952</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="H27" s="7">
         <v>1333</v>
       </c>
       <c r="I27" s="7">
-        <v>988673</v>
+        <v>1053423</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>736</v>
+        <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>525</v>
+        <v>751</v>
       </c>
       <c r="M27" s="7">
         <v>2037</v>
       </c>
       <c r="N27" s="7">
-        <v>1662904</v>
+        <v>1876375</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8770,46 +8815,46 @@
         <v>220</v>
       </c>
       <c r="D28" s="7">
-        <v>193722</v>
+        <v>177129</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>742</v>
+        <v>682</v>
       </c>
       <c r="H28" s="7">
         <v>439</v>
       </c>
       <c r="I28" s="7">
-        <v>290498</v>
+        <v>257666</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="M28" s="7">
         <v>659</v>
       </c>
       <c r="N28" s="7">
-        <v>484220</v>
+        <v>434795</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>747</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8821,46 +8866,46 @@
         <v>109</v>
       </c>
       <c r="D29" s="7">
-        <v>100965</v>
+        <v>94264</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>749</v>
+        <v>153</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>750</v>
+        <v>504</v>
       </c>
       <c r="H29" s="7">
         <v>262</v>
       </c>
       <c r="I29" s="7">
-        <v>172641</v>
+        <v>152912</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>584</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>761</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
       </c>
       <c r="N29" s="7">
-        <v>273606</v>
+        <v>247175</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>367</v>
+        <v>764</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>667</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8872,46 +8917,46 @@
         <v>66</v>
       </c>
       <c r="D30" s="7">
-        <v>67718</v>
+        <v>67841</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>599</v>
+        <v>766</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>174</v>
+        <v>688</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>674</v>
+        <v>767</v>
       </c>
       <c r="H30" s="7">
         <v>118</v>
       </c>
       <c r="I30" s="7">
-        <v>73293</v>
+        <v>67101</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>166</v>
+        <v>688</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>596</v>
+        <v>644</v>
       </c>
       <c r="M30" s="7">
         <v>184</v>
       </c>
       <c r="N30" s="7">
-        <v>141011</v>
+        <v>134942</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>684</v>
+        <v>174</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8923,7 +8968,7 @@
         <v>3361</v>
       </c>
       <c r="D31" s="7">
-        <v>3373168</v>
+        <v>3448482</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>70</v>
@@ -8938,7 +8983,7 @@
         <v>5345</v>
       </c>
       <c r="I31" s="7">
-        <v>3795546</v>
+        <v>3650289</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>70</v>
@@ -8953,7 +8998,7 @@
         <v>8706</v>
       </c>
       <c r="N31" s="7">
-        <v>7168714</v>
+        <v>7098771</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
